--- a/东京 (2).xlsx
+++ b/东京 (2).xlsx
@@ -60,12 +60,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,13 +76,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,9 +89,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,16 +125,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -133,46 +149,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,18 +189,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,22 +204,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,13 +245,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,169 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,6 +418,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,7 +451,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,48 +505,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,148 +523,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,14 +1003,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B27:D28"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
   <cols>
+    <col min="2" max="18" width="12.7964601769912"/>
     <col min="21" max="21" width="9.55752212389381" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1469,9 +1445,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>5</v>
+      </c>
+      <c r="L22">
+        <f>L19+L20*1.6</f>
+        <v>10587.4617343845</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22:R22" si="4">M19+M20*1.6</f>
+        <v>55744.7387167981</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>113558.547483323</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>119095.386673135</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>205335.34192359</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>219855.998234081</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="4"/>
+        <v>221316.663500303</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1581,55 +1585,55 @@
         <v>14.9852327309255</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25:O25" si="4">(0.9*9.8*C24)^0.5</f>
+        <f t="shared" ref="C25:O25" si="5">(0.9*9.8*C24)^0.5</f>
         <v>13.7257130962293</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.7247961906477</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.2391141474825</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.2276988310584</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.6046138166475</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.1605246866376</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.5862159482723</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.5031189419617</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.8165380571846</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.8904225633038</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.3489999595109</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.670878801071</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.5054655602834</v>
       </c>
     </row>
@@ -1662,55 +1666,55 @@
         <v>21.4458578963698</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" ref="C27:O27" si="5">C23*$Q$23</f>
+        <f t="shared" ref="C27:O27" si="6">C23*$Q$23</f>
         <v>32.0012410797394</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35.394042817251</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.7614024201055</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.7930499534595</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.5789636984176</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80.5476264349985</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>85.9928637914986</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>94.7052435618989</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>97.2603164753335</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>115.983555693453</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>119.166925224946</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>126.580825318027</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>135</v>
       </c>
     </row>
@@ -1720,55 +1724,55 @@
         <v>10.184</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" ref="C28:O28" si="6">0.4*C24</f>
+        <f t="shared" ref="C28:O28" si="7">0.4*C24</f>
         <v>8.544</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.248</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.532</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.556</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.504</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38.564</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.088</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.052</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.956</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.732</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.916</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.604</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.272</v>
       </c>
     </row>
@@ -1778,56 +1782,288 @@
         <v>9.47749333948592</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" ref="C29:D29" si="7">(0.9*9.8*C28)^0.5</f>
+        <f t="shared" ref="C29:D29" si="8">(0.9*9.8*C28)^0.5</f>
         <v>8.68090317881728</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.2101454049446</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" ref="C29:O29" si="8">(0.9*9.8*E28)^0.5</f>
+        <f t="shared" ref="C29:O29" si="9">(0.9*9.8*E28)^0.5</f>
         <v>9.63806204586793</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12.793120026014</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.5016798656215</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18.4427351550685</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.32776637182164</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14.8646775948892</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.3708014598539</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13.8447188487163</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.8101933394763</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.5435895216003</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.5416064062915</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30">
+        <f>B27+B28*1.5*0.001</f>
+        <v>21.4611338963698</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:O30" si="10">C27+C28*1.5*0.001</f>
+        <v>32.0140570797394</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="10"/>
+        <v>35.415414817251</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="10"/>
+        <v>57.7772004201055</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="10"/>
+        <v>63.8208839534595</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="10"/>
+        <v>78.5977196984176</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="10"/>
+        <v>80.6054724349985</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="10"/>
+        <v>86.0019957914986</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="10"/>
+        <v>94.7428215618989</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="10"/>
+        <v>97.2752504753335</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="10"/>
+        <v>116.016153693453</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="10"/>
+        <v>119.177299224946</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="10"/>
+        <v>126.599731318027</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="10"/>
+        <v>135.012408</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32">
+        <f>B27*1000</f>
+        <v>21445.8578963698</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:O32" si="11">C27*1000</f>
+        <v>32001.2410797394</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="11"/>
+        <v>35394.042817251</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="11"/>
+        <v>57761.4024201055</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="11"/>
+        <v>63793.0499534595</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="11"/>
+        <v>78578.9636984176</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="11"/>
+        <v>80547.6264349985</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="11"/>
+        <v>85992.8637914986</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="11"/>
+        <v>94705.2435618989</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="11"/>
+        <v>97260.3164753335</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="11"/>
+        <v>115983.555693453</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="11"/>
+        <v>119166.925224946</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="11"/>
+        <v>126580.825318027</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="11"/>
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33">
+        <f>B30*1000</f>
+        <v>21461.1338963698</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:O33" si="12">C30*1000</f>
+        <v>32014.0570797394</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="12"/>
+        <v>35415.414817251</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="12"/>
+        <v>57777.2004201055</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="12"/>
+        <v>63820.8839534595</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="12"/>
+        <v>78597.7196984176</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="12"/>
+        <v>80605.4724349985</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="12"/>
+        <v>86001.9957914986</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="12"/>
+        <v>94742.8215618989</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="12"/>
+        <v>97275.2504753335</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="12"/>
+        <v>116016.153693453</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="12"/>
+        <v>119177.299224946</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="12"/>
+        <v>126599.731318027</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="12"/>
+        <v>135012.408</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="4">
+        <f t="shared" ref="B34:O34" si="13">0.4*B30</f>
+        <v>8.58445355854792</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="13"/>
+        <v>12.8056228318958</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="13"/>
+        <v>14.1661659269004</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="13"/>
+        <v>23.1108801680422</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="13"/>
+        <v>25.5283535813838</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="13"/>
+        <v>31.439087879367</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="13"/>
+        <v>32.2421889739994</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" si="13"/>
+        <v>34.4007983165994</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="13"/>
+        <v>37.8971286247596</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="13"/>
+        <v>38.9101001901334</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="13"/>
+        <v>46.4064614773812</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="13"/>
+        <v>47.6709196899784</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="13"/>
+        <v>50.6398925272108</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="13"/>
+        <v>54.0049632</v>
       </c>
     </row>
   </sheetData>
